--- a/Roomco-traductions.xlsx
+++ b/Roomco-traductions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdarcy/git/Ezee/NodeScript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0FA6DDE3-0475-F745-85A6-800E3ABE08E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4B0C5662-3FB1-4F4F-9548-FA3E472FA983}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="38400" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -2354,8 +2354,8 @@
   </sheetPr>
   <dimension ref="A1:D994"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
